--- a/Burn-down-chart.xlsx
+++ b/Burn-down-chart.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Github\Kanonprojekt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4631528-3D56-4A0C-98DB-319F6D36EA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,19 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Nuværende progress</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,6 +83,958 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nuværende progress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4022-4DAF-B32C-A6BBC7D4D72F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1670430288"/>
+        <c:axId val="1592273968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1670430288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1592273968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1592273968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1670430288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2796BE0D-C4F4-47AE-BA50-D27941BEBD00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1299,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>19</v>
+      </c>
+      <c r="C1">
+        <v>18</v>
+      </c>
+      <c r="D1">
+        <v>17</v>
+      </c>
+      <c r="E1">
+        <v>16</v>
+      </c>
+      <c r="F1">
+        <v>15</v>
+      </c>
+      <c r="G1">
+        <v>14</v>
+      </c>
+      <c r="H1">
+        <v>13</v>
+      </c>
+      <c r="I1">
+        <v>12</v>
+      </c>
+      <c r="J1">
+        <v>11</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>8</v>
+      </c>
+      <c r="N1">
+        <v>7</v>
+      </c>
+      <c r="O1">
+        <v>6</v>
+      </c>
+      <c r="P1">
+        <v>5</v>
+      </c>
+      <c r="Q1">
+        <v>4</v>
+      </c>
+      <c r="R1">
+        <v>3</v>
+      </c>
+      <c r="S1">
+        <v>2</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Burn-down-chart.xlsx
+++ b/Burn-down-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Github\Kanonprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4631528-3D56-4A0C-98DB-319F6D36EA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F086C59B-7968-4311-8277-D51795A71F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Time</t>
   </si>
   <si>
     <t>Nuværende progress</t>
+  </si>
+  <si>
+    <t>Optimale progress</t>
   </si>
 </sst>
 </file>
@@ -100,6 +103,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burn-down-chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -151,25 +179,15 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -243,6 +261,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -250,6 +274,171 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4022-4DAF-B32C-A6BBC7D4D72F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimale progress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-01DF-4D97-9990-4F128FE7CA81}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -285,6 +474,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Timer</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> tilbage</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -347,6 +596,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Arbejdstimer tilbage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1300,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1377,6 +1681,74 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="S2">
+        <v>17</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>17</v>
+      </c>
+      <c r="S3">
+        <v>18</v>
+      </c>
+      <c r="T3">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Burn-down-chart.xlsx
+++ b/Burn-down-chart.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Github\Kanonprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F086C59B-7968-4311-8277-D51795A71F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA00098-5FBA-4362-B1A5-560AA3073223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="160" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -495,13 +504,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Timer</a:t>
+                  <a:t>Dage tilbage</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="da-DK" baseline="0"/>
-                  <a:t> tilbage</a:t>
-                </a:r>
-                <a:endParaRPr lang="da-DK"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1606,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Burn-down-chart.xlsx
+++ b/Burn-down-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Github\Kanonprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA00098-5FBA-4362-B1A5-560AA3073223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06D0DEC-75CA-4BCC-AFDA-5A69F54EBD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="160" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>19</c:v>
@@ -1610,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T2">
         <v>19</v>

--- a/Burn-down-chart.xlsx
+++ b/Burn-down-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Github\Kanonprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06D0DEC-75CA-4BCC-AFDA-5A69F54EBD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E375A7FE-6E8E-4862-A309-61E5453A8AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,70 +199,340 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Ark1'!$B$1:$T$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:multiLvlStrRef>
+              <c:f>'Ark1'!$B$1:$BC$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="54"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>54</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>53</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>54</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>53</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -270,11 +540,62 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41</c:v>
+                </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,66 +635,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$B$1:$T$1</c:f>
+              <c:f>'Ark1'!$AI$1:$BA$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -504,7 +825,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Dage tilbage</a:t>
+                  <a:t>Vores progression i timer</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -621,7 +942,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Arbejdstimer tilbage</a:t>
+                  <a:t>Timer til rådighed</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -748,7 +1069,956 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Burn-down-chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$B$1:$BC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$B$2:$BC$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F678-4440-B1EB-3385A32D7030}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Serie 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$B$4:$BC$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F678-4440-B1EB-3385A32D7030}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="426254143"/>
+        <c:axId val="426250815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="426254143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Vores progression i timer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426250815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="426250815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Timer til rådighed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426254143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1304,20 +2574,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233451</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>122291</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1337,6 +3123,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>446640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>166954</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>62358</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F887590A-B068-47EF-839C-254ED23585CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1608,10 +3430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:BC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1619,80 +3441,394 @@
     <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
+        <v>54</v>
+      </c>
+      <c r="C1">
+        <f>(B1-1)</f>
+        <v>53</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:BC1" si="0">(C1-1)</f>
+        <v>52</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="S1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="T1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="U1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="V1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="W1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="X1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="Y1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Z1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AA1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AB1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AC1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AD1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AE1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AF1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AG1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AI1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AJ1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AK1">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C1">
+      <c r="AL1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D1">
+      <c r="AM1">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E1">
+      <c r="AN1">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F1">
+      <c r="AO1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G1">
+      <c r="AP1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H1">
+      <c r="AQ1">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I1">
+      <c r="AR1">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J1">
+      <c r="AS1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K1">
+      <c r="AT1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="AU1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M1">
+      <c r="AV1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N1">
+      <c r="AW1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="O1">
+      <c r="AX1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P1">
+      <c r="AY1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q1">
+      <c r="AZ1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R1">
+      <c r="BA1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="S1">
+      <c r="BB1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="T1">
+      <c r="BC1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>53</v>
+      </c>
+      <c r="D2">
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <v>52</v>
+      </c>
+      <c r="F2">
+        <v>52</v>
+      </c>
+      <c r="G2">
+        <v>51</v>
+      </c>
+      <c r="H2">
+        <v>47</v>
+      </c>
+      <c r="I2">
+        <v>47</v>
+      </c>
+      <c r="J2">
+        <v>45</v>
+      </c>
+      <c r="K2">
+        <v>45</v>
+      </c>
+      <c r="L2">
+        <v>41</v>
+      </c>
+      <c r="M2">
+        <v>41</v>
+      </c>
+      <c r="N2">
+        <v>41</v>
+      </c>
+      <c r="O2">
+        <v>41</v>
+      </c>
+      <c r="P2">
+        <v>41</v>
+      </c>
+      <c r="Q2">
+        <v>41</v>
+      </c>
+      <c r="R2">
+        <v>41</v>
+      </c>
       <c r="S2">
+        <v>43</v>
+      </c>
+      <c r="T2">
+        <v>40</v>
+      </c>
+      <c r="U2">
+        <v>37</v>
+      </c>
+      <c r="V2">
+        <v>36</v>
+      </c>
+      <c r="W2">
+        <v>33</v>
+      </c>
+      <c r="X2">
+        <v>31</v>
+      </c>
+      <c r="Y2">
+        <v>31</v>
+      </c>
+      <c r="Z2">
+        <v>31</v>
+      </c>
+      <c r="AA2">
+        <v>31</v>
+      </c>
+      <c r="AB2">
+        <v>32</v>
+      </c>
+      <c r="AC2">
+        <v>32</v>
+      </c>
+      <c r="AD2">
+        <v>29</v>
+      </c>
+      <c r="AE2">
+        <v>29</v>
+      </c>
+      <c r="AF2">
+        <v>27</v>
+      </c>
+      <c r="AG2">
+        <v>25</v>
+      </c>
+      <c r="AH2">
+        <v>25</v>
+      </c>
+      <c r="AI2">
+        <v>24</v>
+      </c>
+      <c r="AJ2">
+        <v>23</v>
+      </c>
+      <c r="AK2">
+        <v>21</v>
+      </c>
+      <c r="AL2">
+        <v>21</v>
+      </c>
+      <c r="AM2">
+        <v>21</v>
+      </c>
+      <c r="AN2">
+        <v>20</v>
+      </c>
+      <c r="AO2">
+        <v>20</v>
+      </c>
+      <c r="AP2">
         <v>19</v>
       </c>
-      <c r="T2">
-        <v>19</v>
+      <c r="AQ2">
+        <v>18</v>
+      </c>
+      <c r="AR2">
+        <v>18</v>
+      </c>
+      <c r="AS2">
+        <v>17</v>
+      </c>
+      <c r="AT2">
+        <v>15</v>
+      </c>
+      <c r="AU2">
+        <v>15</v>
+      </c>
+      <c r="AV2">
+        <v>14</v>
+      </c>
+      <c r="AW2">
+        <v>13</v>
+      </c>
+      <c r="AX2">
+        <v>13</v>
+      </c>
+      <c r="AY2">
+        <v>12</v>
+      </c>
+      <c r="AZ2">
+        <v>10</v>
+      </c>
+      <c r="BA2">
+        <v>9</v>
+      </c>
+      <c r="BB2">
+        <v>8</v>
+      </c>
+      <c r="BC2">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1752,6 +3888,363 @@
       </c>
       <c r="T3">
         <v>19</v>
+      </c>
+      <c r="U3">
+        <f>(T3+1)</f>
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:BD3" si="1">(U3+1)</f>
+        <v>21</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <f>(B4-1)</f>
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:BC4" si="2">(C4-1)</f>
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AX4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AY4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="BA4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="BC4">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
